--- a/dna-methylation/scripts/develop/illumina450k/residuals/plot/scatter_comparison_cols.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/residuals/plot/scatter_comparison_cols.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\dna-methylation\dna-methylation\scripts\develop\betas\plot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\dna-methylation\dna-methylation\scripts\develop\illumina450k\residuals\plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BA21E3-2808-4AF8-BD57-AD8EE30E4AEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120"/>
   </bookViews>
   <sheets>
     <sheet name="i" sheetId="1" r:id="rId1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,23 +196,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -249,23 +231,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,16 +406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -461,48 +426,48 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C2">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C3">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C5">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/dna-methylation/scripts/develop/illumina450k/residuals/plot/scatter_comparison_cols.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/residuals/plot/scatter_comparison_cols.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,10 +431,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -442,10 +442,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -453,10 +453,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -464,10 +464,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
